--- a/ドキュメント類/画面基本設計.xlsx
+++ b/ドキュメント類/画面基本設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kinno\git\2020_application_repoitory\ドキュメント類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9A3AFD-0445-45DF-9029-370249310027}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD16AAF-109A-4F2D-B510-9136E0E5DC07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="691" activeTab="4" xr2:uid="{DE817D83-E6FB-4CBD-B24E-D39A4C63943C}"/>
   </bookViews>
@@ -2171,7 +2171,99 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>81051</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>3051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>17314</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>226640</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="18" name="インク 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0273D916-DC10-410C-A9EC-FEBFF15B9E74}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6612480" y="12467194"/>
+            <a:ext cx="5379120" cy="677160"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="18" name="インク 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0273D916-DC10-410C-A9EC-FEBFF15B9E74}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6603839" y="12458194"/>
+              <a:ext cx="5396761" cy="694800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-06-05T05:04:04.190"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">202 17,'3'-2,"-1"0,0 1,1-1,-1 1,1-1,0 1,-1 0,1 0,0 0,0 0,0 1,0-1,0 1,-1-1,1 1,3 0,7 1,1 0,0 1,2 1,12 1,20 3,0 2,0 2,14 4,72 14,26 15,-72-17,1-4,1-4,38 0,67-3,204 14,-98-10,-22-1,-104-8,74-4,-63-4,-41 9,-59-4,0-3,-27-4,176 8,156 22,58 5,141 13,-470-37,-35-4,4-2,-62-4,0 2,0 1,0 1,-1 1,0 1,0 2,2 2,40 13,-44-18,1-2,0 0,8 0,-7-2,1 2,21 7,37 11,2-4,28 1,29 6,55 7,-129-23,5 5,-45-10,-1-1,17 0,-16-2,1 1,9 4,2 5,0 1,38 19,34 11,-37-17,-11-4,64 12,-35-10,-1 3,2 6,2-2,0-5,41 4,-82-23,0-3,1-2,41-5,-2 1,12 6,62 12,-169-16,106 7,-44-4,1 4,36 4,-31-4,67 17,-70-9,162 43,-172-43,0-2,2-3,-1-3,38 0,58 4,79 2,-37-13,22 0,64 15,-77-3,118-12,-148-2,631 2,-774 2,1 1,-1 2,25 7,44 7,26-10,1-5,20-6,-2 0,1567 2,-1691 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2045.12">1 420,'73'1,"-1"2,27 8,112 23,-57-6,-33-5,-89-17,0 2,3 2,-12-2,1-2,0 0,0-2,11 0,-5-2,-8-2,1 2,0 0,-1 2,0 0,13 5,52 16,-52-15,1 0,-2 3,1 1,11 4,1-1,0-3,47 8,-34-8,91 29,54 26,-150-49,-3-5,2-2,-1-3,44 3,60 11,31 8,17-7,-121-13,-8-1,69 1,-118-10,0 1,11 3,34 4,38 4,-58-7,48 1,328-9,-406 3,0 0,0 2,-1 0,0 1,2 2,6 1,0-1,7-1,44 1,1-4,18-4,-12 0,64 8,95 9,176-14,-198-4,1027 2,-1213 2,0 1,18 5,-18-2,2-2,10 0,1090-4,-517-1,-609 1,1 1,-1 1,1 1,-1 0,0 1,0 0,0 1,6 3,21 12,-1 2,1 3,-30-18,14 5,0 0,1-1,0-2,0-1,2-1,68 24,216 82,-290-106,0-1,11 2,-10-3,0 1,6 4,223 80,-185-67,1-3,1-3,0-3,32 0,-34-11,-39-2,0 0,28 6,6 3,26-1,21 2,16 0,-11-2,29 3,1-6,51-8,-39 1,1143 1,-1257 2,-1 1,13 5,-9-2,36 1,229-6,-142-2,-134 3,-1 1,1 3,25 6,-38-7,69 12,-65-14</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2608,8 +2700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FCBE9E-DC8D-4766-ACC6-FAD8DD84C36D}">
   <dimension ref="B34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BG52" sqref="BG52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/ドキュメント類/画面基本設計.xlsx
+++ b/ドキュメント類/画面基本設計.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kinno\git\2020_application_repoitory\ドキュメント類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD16AAF-109A-4F2D-B510-9136E0E5DC07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A593F78C-1943-4484-BD7C-0707CD9B48B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="691" activeTab="4" xr2:uid="{DE817D83-E6FB-4CBD-B24E-D39A4C63943C}"/>
   </bookViews>
@@ -2184,8 +2184,8 @@
       <xdr:row>56</xdr:row>
       <xdr:rowOff>226640</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="18" name="インク 17">
@@ -2204,7 +2204,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="18" name="インク 17">
@@ -2226,6 +2226,136 @@
             <a:xfrm>
               <a:off x="6603839" y="12458194"/>
               <a:ext cx="5396761" cy="694800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>108411</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>154020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>254109</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>62334</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="20" name="インク 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DA3AF80-6FB9-4260-BAE4-0903E76707A2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6639840" y="13298520"/>
+            <a:ext cx="4227840" cy="1722600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="20" name="インク 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DA3AF80-6FB9-4260-BAE4-0903E76707A2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6631200" y="13289880"/>
+              <a:ext cx="4245480" cy="1740240"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>217526</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>226497</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>217886</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>71</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="21" name="インク 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E110B28F-30D7-4AA7-937E-F7FF0A2A7A38}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1578240" y="9515640"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="21" name="インク 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E110B28F-30D7-4AA7-937E-F7FF0A2A7A38}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1569240" y="9506640"/>
+              <a:ext cx="18000" cy="18000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2263,6 +2393,61 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">202 17,'3'-2,"-1"0,0 1,1-1,-1 1,1-1,0 1,-1 0,1 0,0 0,0 0,0 1,0-1,0 1,-1-1,1 1,3 0,7 1,1 0,0 1,2 1,12 1,20 3,0 2,0 2,14 4,72 14,26 15,-72-17,1-4,1-4,38 0,67-3,204 14,-98-10,-22-1,-104-8,74-4,-63-4,-41 9,-59-4,0-3,-27-4,176 8,156 22,58 5,141 13,-470-37,-35-4,4-2,-62-4,0 2,0 1,0 1,-1 1,0 1,0 2,2 2,40 13,-44-18,1-2,0 0,8 0,-7-2,1 2,21 7,37 11,2-4,28 1,29 6,55 7,-129-23,5 5,-45-10,-1-1,17 0,-16-2,1 1,9 4,2 5,0 1,38 19,34 11,-37-17,-11-4,64 12,-35-10,-1 3,2 6,2-2,0-5,41 4,-82-23,0-3,1-2,41-5,-2 1,12 6,62 12,-169-16,106 7,-44-4,1 4,36 4,-31-4,67 17,-70-9,162 43,-172-43,0-2,2-3,-1-3,38 0,58 4,79 2,-37-13,22 0,64 15,-77-3,118-12,-148-2,631 2,-774 2,1 1,-1 2,25 7,44 7,26-10,1-5,20-6,-2 0,1567 2,-1691 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2045.12">1 420,'73'1,"-1"2,27 8,112 23,-57-6,-33-5,-89-17,0 2,3 2,-12-2,1-2,0 0,0-2,11 0,-5-2,-8-2,1 2,0 0,-1 2,0 0,13 5,52 16,-52-15,1 0,-2 3,1 1,11 4,1-1,0-3,47 8,-34-8,91 29,54 26,-150-49,-3-5,2-2,-1-3,44 3,60 11,31 8,17-7,-121-13,-8-1,69 1,-118-10,0 1,11 3,34 4,38 4,-58-7,48 1,328-9,-406 3,0 0,0 2,-1 0,0 1,2 2,6 1,0-1,7-1,44 1,1-4,18-4,-12 0,64 8,95 9,176-14,-198-4,1027 2,-1213 2,0 1,18 5,-18-2,2-2,10 0,1090-4,-517-1,-609 1,1 1,-1 1,1 1,-1 0,0 1,0 0,0 1,6 3,21 12,-1 2,1 3,-30-18,14 5,0 0,1-1,0-2,0-1,2-1,68 24,216 82,-290-106,0-1,11 2,-10-3,0 1,6 4,223 80,-185-67,1-3,1-3,0-3,32 0,-34-11,-39-2,0 0,28 6,6 3,26-1,21 2,16 0,-11-2,29 3,1-6,51-8,-39 1,1143 1,-1257 2,-1 1,13 5,-9-2,36 1,229-6,-142-2,-134 3,-1 1,1 3,25 6,-38-7,69 12,-65-14</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-09T09:45:37.432"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'13'0,"0"0,1 0,-1 1,1 1,-1 0,0 1,0 0,0 1,-1 1,1 0,22 13,22 20,-36-23,0-1,2-1,36 17,-14-12,0 3,56 35,61 41,-143-88,1 0,24 7,-24-9,0 0,27 15,254 147,-272-154,1-1,48 15,-33-13,85 39,-33-12,-14-4,-58-25,0-2,1-1,39 11,87 26,-56-15,-63-21,48 25,-17-7,139 41,32 12,57 29,-267-102,409 162,-332-133,41 13,-112-42,-1 2,0 1,-1 2,0 0,-1 2,31 25,-54-39,110 83,-99-74,1-1,0 0,0-1,1-1,23 9,97 25,-74-25,103 33,-135-42,0-1,53 5,5 1,95 25,-154-34,0-2,0-1,48-4,40 3,-41 11,-52-7,46 4,-23-9,-27 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1017.39">5872 127,'0'-1,"0"0,-1 0,1 0,0 1,-1-1,1 0,0 0,-1 0,1 0,-1 1,0-1,1 0,-1 1,0-1,1 0,-1 1,0-1,1 1,-1-1,0 1,0-1,0 1,0 0,1-1,-1 1,-2 0,-26-6,26 6,-5-1,1 1,-1 0,0 1,0 0,1 0,-1 0,-7 3,-54 22,29-11,-14 6,12-5,-90 22,-6-2,35-7,65-21,15-4,-32 11,-140 40,12-5,138-36,-61 9,15-4,-14 9,1 4,-131 60,77-18,119-57,-6 3,-2-1,-93 23,61-22,1 3,-132 58,167-62,4-2,-77 25,48-19,53-17,0 0,-1-1,1-1,-1 0,-19 1,15-3,-1 0,-23 5,36-4,0-1,1 1,-1 0,1 0,0 1,0 0,0 1,-10 7,-100 98,46-37,-8 7,64-66,1 0,1 2,-14 20,13-17,-32 33,27-31,0 1,2 1,0 1,-20 37,24-39,-1-1,-30 35,37-49,0 1,-1-1,1-1,-2 1,1-1,-1-1,0 0,0 0,-17 6,20-8,-5-1,1 1,1 1,-1-1,0 2,1-1,0 1,0 1,1 0,-11 9,-32 29,-105 71,126-94,10-9,-1 0,-21 8,-27 15,48-21</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1827.95">5368 2974,'5'1,"1"-1,-1 1,0 0,0 1,1-1,-1 1,0 0,0 0,0 1,4 2,49 37,-24-16,113 63,-15-8,-86-50,51 25,-80-47,159 72,-125-59,61 38,-63-32,67 28,274 91,-341-129,267 89,-277-94,0 1,66 34,-34-17,-41-19,29 17,-32-16,0-1,0-1,38 9,19 7,173 79,-48-33,-172-59,0-2,1-2,59 8,-59-10,72 24,-3 1,-99-31,23 6,2-2,-1 0,39 0,-43-4,47 9,-46-6,41 2,207-6,-127-2,-127 2,1 1,27 7,24 2,66-9,-5-1,-52 11,-55-7,40 2,124 8,117 45,-258-50,-27-4,49 4,19 2,-41-4,-27-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2694.4">11744 2773,'-1'3,"1"1,-1-1,1 0,-1 1,0-1,0 0,-1 0,1 0,-1 0,1 0,-3 3,-27 33,14-19,7-8,-1-1,0 1,-1-2,0 0,0 0,-1-1,-25 13,-7-1,-54 18,34-15,22-7,-68 28,-195 51,221-79,-141 9,165-20,1 4,-110 30,86-19,-133 15,-89-9,290-26,-364 23,244-13,-298 13,196-9,103-4,25-1,-30 3,9 0,-14 0,98-10,1 1,0 3,-77 21,106-23,-8 2,1 0,-1-2,0 0,-33 1,43-6,-33 0,-91 14,91-8,39-6,0 1,0 0,-1 0,1 1,1 0,-1 1,0 0,1 0,-1 1,1 0,-9 6,-35 31,2 2,-63 69,98-93,1 1,0 0,-18 39,17-30,-23 32,8-17,1 1,-23 52,14-26,-58 82,91-143,-1 0,2 0,-1 1,1-1,-3 16,4-13,-1-1,-1 0,-10 22,-58 107,63-119</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-09T09:45:44.609"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2700,7 +2885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FCBE9E-DC8D-4766-ACC6-FAD8DD84C36D}">
   <dimension ref="B34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="BG52" sqref="BG52"/>
     </sheetView>
   </sheetViews>

--- a/ドキュメント類/画面基本設計.xlsx
+++ b/ドキュメント類/画面基本設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kinno\git\2020_application_repoitory\ドキュメント類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A593F78C-1943-4484-BD7C-0707CD9B48B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62C210C-AC1F-442A-89C4-0117458D9215}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="691" activeTab="4" xr2:uid="{DE817D83-E6FB-4CBD-B24E-D39A4C63943C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="691" xr2:uid="{DE817D83-E6FB-4CBD-B24E-D39A4C63943C}"/>
   </bookViews>
   <sheets>
     <sheet name="画面リスト" sheetId="3" r:id="rId1"/>
@@ -605,6 +605,307 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>53045</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D7ACAC4-DE63-41E1-808D-537BCAF500F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7772400" cy="5539445"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>139096</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93E0FAD8-12A0-4DB6-B126-AA8C5138C0D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6711950" y="1390650"/>
+          <a:ext cx="2489200" cy="805846"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -93863"/>
+            <a:gd name="adj2" fmla="val 43588"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>登録されているユーザの</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Email</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>を入力する。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>183546</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35674AB2-D6F6-4FE9-BCC7-414ED1B29673}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6711950" y="2349500"/>
+          <a:ext cx="2489200" cy="805846"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -93098"/>
+            <a:gd name="adj2" fmla="val 22312"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>登録されているユーザの</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Password</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>を入力する。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41AD3E38-E093-4781-AD68-063BDB2B1981}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6711950" y="3498850"/>
+          <a:ext cx="2527300" cy="1847850"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -96863"/>
+            <a:gd name="adj2" fmla="val -28417"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Email</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>と</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Password</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>を入力したのち、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Login</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ボタンをクリック。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>登録されているユーザであればトークンを発行し、ログインできる。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>239183</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>224366</xdr:rowOff>
@@ -1166,7 +1467,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2249,8 +2550,8 @@
       <xdr:row>65</xdr:row>
       <xdr:rowOff>62334</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="20" name="インク 19">
@@ -2269,7 +2570,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="20" name="インク 19">
@@ -2314,8 +2615,8 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>71</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="21" name="インク 20">
@@ -2334,7 +2635,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="21" name="インク 20">
@@ -2364,6 +2665,459 @@
         </xdr:pic>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>29844</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C0BE65-736D-4BD0-AF9F-034432CB9542}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7772400" cy="5516244"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>260351</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAA49A72-6A8C-4738-BCC5-FFE44632A680}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5537201" y="1879600"/>
+          <a:ext cx="1549400" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -81872"/>
+            <a:gd name="adj2" fmla="val -20174"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>店名を入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F29BCDC-C46E-4F6E-819D-A0CD61247686}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5492750" y="2463800"/>
+          <a:ext cx="3238499" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -90888"/>
+            <a:gd name="adj2" fmla="val -23683"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>都道府県を選択すると</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>PlaceAPI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を呼び出し、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>PrefectureCd</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に合った</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Place</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>一覧を表示する。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>260349</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FE02F80-4E59-4C3A-BBAD-CEFD7A5C3364}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="3409950"/>
+          <a:ext cx="3238499" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -90888"/>
+            <a:gd name="adj2" fmla="val -23683"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ジャンルを選択すると</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>TasteAPI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を呼び出し、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>GenreCd</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に合った</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Taste</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>一覧を表示する。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>82551</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="吹き出し: 四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDE5EB2F-010C-4999-AB64-36DC08B4E1CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2355851" y="4870450"/>
+          <a:ext cx="1549400" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -18757"/>
+            <a:gd name="adj2" fmla="val -134209"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>URL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="吹き出し: 四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73592670-DFCE-47D0-9C44-6E69756A2F25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8483600" y="4864100"/>
+          <a:ext cx="2667000" cy="730250"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -83573"/>
+            <a:gd name="adj2" fmla="val -29099"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>全部入力出来たら</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Regist</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ボタンをクリックして</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>SpreadSheet</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に情報を飛ばす。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2750,7 +3504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8EDBA59-374F-4527-9337-A943BC7C5BE8}">
   <dimension ref="B2:D8"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -2856,12 +3610,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D25D68-7896-4B8A-9260-561BA0BA51CD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AL21" sqref="AL21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2885,7 +3642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FCBE9E-DC8D-4766-ACC6-FAD8DD84C36D}">
   <dimension ref="B34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="BG52" sqref="BG52"/>
     </sheetView>
   </sheetViews>
@@ -2908,13 +3665,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89CAF6CD-0A5F-4C86-979D-9E1981C552D9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AN16" sqref="AN16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>